--- a/sample/swingtest/test1-1/sql/excel/c07.t_soccer_player_list.xlsx
+++ b/sample/swingtest/test1-1/sql/excel/c07.t_soccer_player_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,273 @@
   </si>
   <si>
     <t>FW</t>
+  </si>
+  <si>
+    <t>AU0001</t>
+  </si>
+  <si>
+    <t>Mile Jedinak</t>
+  </si>
+  <si>
+    <t>マイル　ジェディナク</t>
+  </si>
+  <si>
+    <t>KR0001</t>
+  </si>
+  <si>
+    <t>Jo Hyeon-woo</t>
+  </si>
+  <si>
+    <t>チョ　ヒョヌ</t>
+  </si>
+  <si>
+    <t>조현우</t>
+  </si>
+  <si>
+    <t>KR0002</t>
+  </si>
+  <si>
+    <t>Son Heung Min</t>
+  </si>
+  <si>
+    <t>ソン　フンミン</t>
+  </si>
+  <si>
+    <t>손흥민</t>
+  </si>
+  <si>
+    <t>BE0001</t>
+  </si>
+  <si>
+    <t>Romelu Lukaku</t>
+  </si>
+  <si>
+    <t>ロメル　ルカク</t>
+  </si>
+  <si>
+    <t>HR0001</t>
+  </si>
+  <si>
+    <t>Luka Modrić</t>
+  </si>
+  <si>
+    <t>ルカ モドリッチ</t>
+  </si>
+  <si>
+    <t>DK0001</t>
+  </si>
+  <si>
+    <t>Kasper Schmeichel</t>
+  </si>
+  <si>
+    <t>カスパー シュマイケル</t>
+  </si>
+  <si>
+    <t>DK0002</t>
+  </si>
+  <si>
+    <t>Christian Eriksen</t>
+  </si>
+  <si>
+    <t>クリスティアン エリクセン</t>
+  </si>
+  <si>
+    <t>UK0001</t>
+  </si>
+  <si>
+    <t>Harry Kane</t>
+  </si>
+  <si>
+    <t>ハリー ケイン</t>
+  </si>
+  <si>
+    <t>ES0001</t>
+  </si>
+  <si>
+    <t>Andrés Iniesta</t>
+  </si>
+  <si>
+    <t>アンドレス イニエスタ</t>
+  </si>
+  <si>
+    <t>ES0002</t>
+  </si>
+  <si>
+    <t>Diego Costa</t>
+  </si>
+  <si>
+    <t>ジエゴ コスタ</t>
+  </si>
+  <si>
+    <t>Diego da Silva Costa</t>
+  </si>
+  <si>
+    <t>FR0001</t>
+  </si>
+  <si>
+    <t>Antoine Griezmann</t>
+  </si>
+  <si>
+    <t>アントワーヌ グリーズマン</t>
+  </si>
+  <si>
+    <t>FR0002</t>
+  </si>
+  <si>
+    <t>Kylian Mbappé</t>
+  </si>
+  <si>
+    <t>キリアン エムバペ</t>
+  </si>
+  <si>
+    <t>DE0001</t>
+  </si>
+  <si>
+    <t>Manuel Neuer</t>
+  </si>
+  <si>
+    <t>マヌエル ノイアー</t>
+  </si>
+  <si>
+    <t>DE0002</t>
+  </si>
+  <si>
+    <t>Toni Kroos</t>
+  </si>
+  <si>
+    <t>トニ クロース</t>
+  </si>
+  <si>
+    <t>DE0003</t>
+  </si>
+  <si>
+    <t>Mesut Özil</t>
+  </si>
+  <si>
+    <t>メスト エジル</t>
+  </si>
+  <si>
+    <t>DE0004</t>
+  </si>
+  <si>
+    <t>Thomas Müller</t>
+  </si>
+  <si>
+    <t>トーマス ミュラー</t>
+  </si>
+  <si>
+    <t>PT0001</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>ペペ</t>
+  </si>
+  <si>
+    <t>Képler Laveran Lima Ferreira</t>
+  </si>
+  <si>
+    <t>PT0002</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>クリスティアーノ ロナウド</t>
+  </si>
+  <si>
+    <t>PL0001</t>
+  </si>
+  <si>
+    <t>Robert Lewandowski</t>
+  </si>
+  <si>
+    <t>ロベルト レバンドフスキ</t>
+  </si>
+  <si>
+    <t>EG0001</t>
+  </si>
+  <si>
+    <t>Mohamed Salah</t>
+  </si>
+  <si>
+    <t>モハメド サラー</t>
+  </si>
+  <si>
+    <t>محمد صلاح</t>
+  </si>
+  <si>
+    <t>SN0001</t>
+  </si>
+  <si>
+    <t>Sadio Mané</t>
+  </si>
+  <si>
+    <t>サディオ マネ</t>
+  </si>
+  <si>
+    <t>AR0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionel Messi </t>
+  </si>
+  <si>
+    <t>リオネル メッシ</t>
+  </si>
+  <si>
+    <t>AR0002</t>
+  </si>
+  <si>
+    <t>Sergio Agüero</t>
+  </si>
+  <si>
+    <t>セルヒオ アグエロ</t>
+  </si>
+  <si>
+    <t>BR0001</t>
+  </si>
+  <si>
+    <t>Philippe Coutinh</t>
+  </si>
+  <si>
+    <t>フィリペ コウチーニョ</t>
+  </si>
+  <si>
+    <t>BR0002</t>
+  </si>
+  <si>
+    <t>Neymar</t>
+  </si>
+  <si>
+    <t>ネイマール</t>
+  </si>
+  <si>
+    <t>CO0001</t>
+  </si>
+  <si>
+    <t>James Rodríguez</t>
+  </si>
+  <si>
+    <t>ハメス ロドリゲス</t>
+  </si>
+  <si>
+    <t>UY0001</t>
+  </si>
+  <si>
+    <t>Luis Suárez</t>
+  </si>
+  <si>
+    <t>ルイス　スアレス</t>
+  </si>
+  <si>
+    <t>UY0002</t>
+  </si>
+  <si>
+    <t>Edinson Cavani</t>
+  </si>
+  <si>
+    <t>エディンソン カバーニ</t>
   </si>
 </sst>
 </file>
@@ -128,20 +395,30 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Sans-serif"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor rgb="FFF9F9F9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -159,6 +436,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,6 +675,653 @@
         <v>33011.0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>30897.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>33506.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>33793.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2">
+        <v>34102.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1">
+        <v>385.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2">
+        <v>31299.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2">
+        <v>31721.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2">
+        <v>33648.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2">
+        <v>34178.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30813.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2">
+        <v>32423.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="2">
+        <v>33318.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2">
+        <v>36149.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2">
+        <v>31498.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2">
+        <v>32877.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="2">
+        <v>32431.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2">
+        <v>32764.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1">
+        <v>351.0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30373.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="1">
+        <v>351.0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2">
+        <v>31083.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="2">
+        <v>36028.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="2">
+        <v>33770.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1">
+        <v>221.0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="2">
+        <v>33704.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="2">
+        <v>31952.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="2">
+        <v>32296.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="2">
+        <v>33767.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="2">
+        <v>33639.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="2">
+        <v>33431.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="1">
+        <v>598.0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="2">
+        <v>31801.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="1">
+        <v>598.0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="2">
+        <v>31822.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
